--- a/data/trans_orig/IP25A01_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25A01_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F374BE1-BBA2-4A58-B005-6F1EDB008D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03B2945A-F023-4007-8F51-E92D784BCF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CACC9C2D-ADD9-4DEA-A1E4-CF782D7E434D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8CC8297E-A63E-465F-8473-90D2480B2977}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,6 +68,36 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
     <t>De 1 a 2h</t>
   </si>
   <si>
@@ -128,36 +158,6 @@
     <t>4,65%</t>
   </si>
   <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
     <t>Más de 3h</t>
   </si>
   <si>
@@ -191,18 +191,153 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
     <t>46,06%</t>
   </si>
   <si>
     <t>41,08%</t>
   </si>
   <si>
-    <t>50,84%</t>
-  </si>
-  <si>
     <t>41,58%</t>
   </si>
   <si>
@@ -248,33 +383,6 @@
     <t>22,39%</t>
   </si>
   <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
     <t>13,59%</t>
   </si>
   <si>
@@ -302,112 +410,31 @@
     <t>17,28%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
   </si>
   <si>
     <t>39,71%</t>
@@ -462,33 +489,6 @@
   </si>
   <si>
     <t>16,2%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
   </si>
   <si>
     <t>9,37%</t>
@@ -904,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD841F8-BE69-41A9-8DAC-C84479E5B835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AF3A08-E07A-411E-83C5-D2F387877699}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1022,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="D4" s="7">
-        <v>24354</v>
+        <v>84217</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1037,10 +1037,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="I4" s="7">
-        <v>22296</v>
+        <v>69638</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1052,10 +1052,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>89</v>
+        <v>299</v>
       </c>
       <c r="N4" s="7">
-        <v>46650</v>
+        <v>153854</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1073,10 +1073,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7">
-        <v>4011</v>
+        <v>24354</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1088,10 +1088,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7">
-        <v>1033</v>
+        <v>22296</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1103,10 +1103,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="N5" s="7">
-        <v>5043</v>
+        <v>46650</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1124,10 +1124,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>84217</v>
+        <v>4011</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1139,10 +1139,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>69638</v>
+        <v>1033</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1154,10 +1154,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>299</v>
+        <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>153854</v>
+        <v>5043</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1279,10 +1279,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="D9" s="7">
-        <v>184100</v>
+        <v>93093</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1294,10 +1294,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="I9" s="7">
-        <v>144099</v>
+        <v>81516</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1309,10 +1309,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>419</v>
+        <v>249</v>
       </c>
       <c r="N9" s="7">
-        <v>328199</v>
+        <v>174609</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1330,10 +1330,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" s="7">
-        <v>74361</v>
+        <v>77130</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1345,10 +1345,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="I10" s="7">
-        <v>70972</v>
+        <v>87556</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1360,10 +1360,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="N10" s="7">
-        <v>145332</v>
+        <v>164686</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1381,10 +1381,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>86947</v>
+        <v>23653</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1396,10 +1396,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>89302</v>
+        <v>21132</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1411,10 +1411,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="N11" s="7">
-        <v>176249</v>
+        <v>44784</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1432,10 +1432,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>54331</v>
+        <v>11180</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1447,10 +1447,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>42191</v>
+        <v>6552</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1462,10 +1462,10 @@
         <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N12" s="7">
-        <v>96522</v>
+        <v>17732</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1483,10 +1483,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>477</v>
+        <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>399739</v>
+        <v>205055</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1498,10 +1498,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>457</v>
+        <v>279</v>
       </c>
       <c r="I13" s="7">
-        <v>346564</v>
+        <v>196756</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1513,10 +1513,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>934</v>
+        <v>550</v>
       </c>
       <c r="N13" s="7">
-        <v>746303</v>
+        <v>401811</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1536,10 +1536,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D14" s="7">
-        <v>77130</v>
+        <v>86947</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1551,10 +1551,10 @@
         <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I14" s="7">
-        <v>87556</v>
+        <v>89302</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1563,22 +1563,22 @@
         <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="N14" s="7">
-        <v>164686</v>
+        <v>176249</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,25 +1587,25 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D15" s="7">
-        <v>23653</v>
+        <v>184100</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="I15" s="7">
-        <v>21132</v>
+        <v>144099</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -1617,10 +1617,10 @@
         <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>56</v>
+        <v>419</v>
       </c>
       <c r="N15" s="7">
-        <v>44784</v>
+        <v>328199</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -1638,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7">
-        <v>93093</v>
+        <v>74361</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -1653,10 +1653,10 @@
         <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="I16" s="7">
-        <v>81516</v>
+        <v>70972</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -1668,10 +1668,10 @@
         <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="N16" s="7">
-        <v>174609</v>
+        <v>145332</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -1689,10 +1689,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7">
-        <v>11180</v>
+        <v>54331</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -1704,10 +1704,10 @@
         <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I17" s="7">
-        <v>6552</v>
+        <v>42191</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -1719,10 +1719,10 @@
         <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N17" s="7">
-        <v>17732</v>
+        <v>96522</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -1740,10 +1740,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>271</v>
+        <v>477</v>
       </c>
       <c r="D18" s="7">
-        <v>205055</v>
+        <v>399739</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1755,10 +1755,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>279</v>
+        <v>457</v>
       </c>
       <c r="I18" s="7">
-        <v>196756</v>
+        <v>346564</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1770,10 +1770,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>550</v>
+        <v>934</v>
       </c>
       <c r="N18" s="7">
-        <v>401811</v>
+        <v>746303</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1793,10 +1793,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="D19" s="7">
-        <v>285585</v>
+        <v>264257</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>124</v>
@@ -1808,10 +1808,10 @@
         <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>253951</v>
+        <v>240456</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
@@ -1823,10 +1823,10 @@
         <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="N19" s="7">
-        <v>539535</v>
+        <v>504713</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>130</v>
@@ -1844,10 +1844,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>132</v>
+        <v>364</v>
       </c>
       <c r="D20" s="7">
-        <v>102024</v>
+        <v>285585</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>133</v>
@@ -1859,10 +1859,10 @@
         <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>121</v>
+        <v>366</v>
       </c>
       <c r="I20" s="7">
-        <v>93136</v>
+        <v>253951</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>136</v>
@@ -1874,10 +1874,10 @@
         <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>253</v>
+        <v>730</v>
       </c>
       <c r="N20" s="7">
-        <v>195160</v>
+        <v>539535</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>139</v>
@@ -1895,10 +1895,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>405</v>
+        <v>132</v>
       </c>
       <c r="D21" s="7">
-        <v>264257</v>
+        <v>102024</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>142</v>
@@ -1910,10 +1910,10 @@
         <v>144</v>
       </c>
       <c r="H21" s="7">
-        <v>371</v>
+        <v>121</v>
       </c>
       <c r="I21" s="7">
-        <v>240456</v>
+        <v>93136</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>145</v>
@@ -1925,10 +1925,10 @@
         <v>147</v>
       </c>
       <c r="M21" s="7">
-        <v>776</v>
+        <v>253</v>
       </c>
       <c r="N21" s="7">
-        <v>504713</v>
+        <v>195160</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>148</v>
@@ -1958,7 +1958,7 @@
         <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>

--- a/data/trans_orig/IP25A01_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25A01_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03B2945A-F023-4007-8F51-E92D784BCF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59B9E1B4-C311-45E6-B65F-7B020A3E2BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8CC8297E-A63E-465F-8473-90D2480B2977}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8B167576-C4CD-4782-B2E7-54147CAD638F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="159">
-  <si>
-    <t>Menores según el número de horas al día que emplean en utilizar aparatos electrónicos entre semana / solo 2023 en 2023 (Tasa respuesta: 98,28%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
+  <si>
+    <t>Menores según el número de horas al día que emplean en ver la televisión entre semana en 2023 (Tasa respuesta: 99,06%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,454 +65,556 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Más de 3h</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>De 2 a 3h</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>De 1 a 2h</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>Menos de 1h</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>De 1 a 2h</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>De 2 a 3h</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>Más de 3h</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
   </si>
   <si>
     <t>44,5%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -523,7 +625,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -619,39 +721,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -703,7 +805,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -814,13 +916,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -829,6 +924,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -893,19 +995,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AF3A08-E07A-411E-83C5-D2F387877699}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7DCC5A-144A-42DE-87CE-6A2E1F8DC2C3}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1022,10 +1144,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>84217</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1037,187 +1159,187 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>69638</v>
+        <v>1165</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1165</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>299</v>
-      </c>
-      <c r="N4" s="7">
-        <v>153854</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3271</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>48</v>
-      </c>
-      <c r="D5" s="7">
-        <v>24354</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4289</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>41</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22296</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>14</v>
+      </c>
+      <c r="N5" s="7">
+        <v>7560</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>89</v>
-      </c>
-      <c r="N5" s="7">
-        <v>46650</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7">
+        <v>19415</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4011</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12955</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1033</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>57</v>
+      </c>
+      <c r="N6" s="7">
+        <v>32370</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="7">
-        <v>8</v>
-      </c>
-      <c r="N6" s="7">
-        <v>5043</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7">
+        <v>34133</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1886</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>75</v>
+      </c>
+      <c r="I7" s="7">
+        <v>37475</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2105</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>145</v>
+      </c>
+      <c r="N7" s="7">
+        <v>71607</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="7">
-        <v>7</v>
-      </c>
-      <c r="N7" s="7">
-        <v>3991</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1226,255 +1348,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="D8" s="7">
-        <v>114468</v>
+        <v>56819</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="I8" s="7">
-        <v>95072</v>
+        <v>55884</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>403</v>
+        <v>218</v>
       </c>
       <c r="N8" s="7">
-        <v>209539</v>
+        <v>112702</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>93093</v>
+        <v>5035</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>14</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8690</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="7">
-        <v>121</v>
-      </c>
-      <c r="I9" s="7">
-        <v>81516</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>21</v>
+      </c>
+      <c r="N9" s="7">
+        <v>13725</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="7">
-        <v>249</v>
-      </c>
-      <c r="N9" s="7">
-        <v>174609</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>77130</v>
+        <v>14677</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9360</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7">
-        <v>123</v>
-      </c>
-      <c r="I10" s="7">
-        <v>87556</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>38</v>
+      </c>
+      <c r="N10" s="7">
+        <v>24037</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="7">
-        <v>222</v>
-      </c>
-      <c r="N10" s="7">
-        <v>164686</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="D11" s="7">
-        <v>23653</v>
+        <v>83705</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>114</v>
+      </c>
+      <c r="I11" s="7">
+        <v>73045</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7">
-        <v>26</v>
-      </c>
-      <c r="I11" s="7">
-        <v>21132</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>241</v>
+      </c>
+      <c r="N11" s="7">
+        <v>156750</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="7">
-        <v>56</v>
-      </c>
-      <c r="N11" s="7">
-        <v>44784</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>11180</v>
+        <v>71883</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>111</v>
+      </c>
+      <c r="I12" s="7">
+        <v>64959</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6552</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>230</v>
+      </c>
+      <c r="N12" s="7">
+        <v>136842</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="7">
-        <v>23</v>
-      </c>
-      <c r="N12" s="7">
-        <v>17732</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1483,255 +1605,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D13" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="I13" s="7">
-        <v>196756</v>
+        <v>156055</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="N13" s="7">
-        <v>401811</v>
+        <v>331353</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>86947</v>
+        <v>5503</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7510</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="7">
-        <v>114</v>
-      </c>
-      <c r="I14" s="7">
-        <v>89302</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>14</v>
+      </c>
+      <c r="N14" s="7">
+        <v>13013</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="7">
-        <v>228</v>
-      </c>
-      <c r="N14" s="7">
-        <v>176249</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7">
-        <v>184100</v>
+        <v>22814</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>27</v>
+      </c>
+      <c r="I15" s="7">
+        <v>21726</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="7">
-        <v>202</v>
-      </c>
-      <c r="I15" s="7">
-        <v>144099</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>56</v>
+      </c>
+      <c r="N15" s="7">
+        <v>44540</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="7">
-        <v>419</v>
-      </c>
-      <c r="N15" s="7">
-        <v>328199</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>74361</v>
+        <v>99493</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>113</v>
+      </c>
+      <c r="I16" s="7">
+        <v>83634</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="7">
-        <v>93</v>
-      </c>
-      <c r="I16" s="7">
-        <v>70972</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>233</v>
+      </c>
+      <c r="N16" s="7">
+        <v>183127</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="7">
-        <v>189</v>
-      </c>
-      <c r="N16" s="7">
-        <v>145332</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D17" s="7">
-        <v>54331</v>
+        <v>74667</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>84</v>
+      </c>
+      <c r="I17" s="7">
+        <v>62465</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="7">
-        <v>48</v>
-      </c>
-      <c r="I17" s="7">
-        <v>42191</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>172</v>
+      </c>
+      <c r="N17" s="7">
+        <v>137132</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="7">
-        <v>98</v>
-      </c>
-      <c r="N17" s="7">
-        <v>96522</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,63 +1862,63 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>477</v>
+        <v>243</v>
       </c>
       <c r="D18" s="7">
-        <v>399739</v>
+        <v>202478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
-        <v>457</v>
+        <v>232</v>
       </c>
       <c r="I18" s="7">
-        <v>346564</v>
+        <v>175335</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
-        <v>934</v>
+        <v>475</v>
       </c>
       <c r="N18" s="7">
-        <v>746303</v>
+        <v>377813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>405</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>264257</v>
+        <v>6215</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>124</v>
@@ -1808,187 +1930,187 @@
         <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>371</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>240456</v>
+        <v>6216</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>17</v>
+      </c>
+      <c r="N19" s="7">
+        <v>12432</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M19" s="7">
-        <v>776</v>
-      </c>
-      <c r="N19" s="7">
-        <v>504713</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>364</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
-        <v>285585</v>
+        <v>28846</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>35</v>
+      </c>
+      <c r="I20" s="7">
+        <v>23822</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="7">
-        <v>366</v>
-      </c>
-      <c r="I20" s="7">
-        <v>253951</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>72</v>
+      </c>
+      <c r="N20" s="7">
+        <v>52668</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M20" s="7">
-        <v>730</v>
-      </c>
-      <c r="N20" s="7">
-        <v>539535</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="D21" s="7">
-        <v>102024</v>
+        <v>138545</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>158</v>
+      </c>
+      <c r="I21" s="7">
+        <v>116787</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H21" s="7">
-        <v>121</v>
-      </c>
-      <c r="I21" s="7">
-        <v>93136</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>327</v>
+      </c>
+      <c r="N21" s="7">
+        <v>255332</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="M21" s="7">
-        <v>253</v>
-      </c>
-      <c r="N21" s="7">
-        <v>195160</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="D22" s="7">
-        <v>67397</v>
+        <v>115818</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>135</v>
+      </c>
+      <c r="I22" s="7">
+        <v>109509</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" s="7">
-        <v>61</v>
-      </c>
-      <c r="I22" s="7">
-        <v>50848</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>263</v>
+      </c>
+      <c r="N22" s="7">
+        <v>225327</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="7">
-        <v>128</v>
-      </c>
-      <c r="N22" s="7">
-        <v>118246</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,55 +2119,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>968</v>
+        <v>342</v>
       </c>
       <c r="D23" s="7">
-        <v>719263</v>
+        <v>289424</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>919</v>
+        <v>337</v>
       </c>
       <c r="I23" s="7">
-        <v>638391</v>
+        <v>256335</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
-        <v>1887</v>
+        <v>679</v>
       </c>
       <c r="N23" s="7">
-        <v>1357654</v>
+        <v>545759</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>21</v>
+      </c>
+      <c r="D24" s="7">
+        <v>16753</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="7">
+        <v>33</v>
+      </c>
+      <c r="I24" s="7">
+        <v>23582</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" s="7">
+        <v>54</v>
+      </c>
+      <c r="N24" s="7">
+        <v>40335</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="7">
+        <v>95</v>
+      </c>
+      <c r="D25" s="7">
+        <v>69608</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="7">
+        <v>85</v>
+      </c>
+      <c r="I25" s="7">
+        <v>59197</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M25" s="7">
+        <v>180</v>
+      </c>
+      <c r="N25" s="7">
+        <v>128805</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="7">
+        <v>452</v>
+      </c>
+      <c r="D26" s="7">
+        <v>341159</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="7">
+        <v>406</v>
+      </c>
+      <c r="I26" s="7">
+        <v>286421</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M26" s="7">
+        <v>858</v>
+      </c>
+      <c r="N26" s="7">
+        <v>627579</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="7">
+        <v>405</v>
+      </c>
+      <c r="D27" s="7">
+        <v>296501</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="7">
+        <v>405</v>
+      </c>
+      <c r="I27" s="7">
+        <v>274408</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M27" s="7">
+        <v>810</v>
+      </c>
+      <c r="N27" s="7">
+        <v>570909</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>973</v>
+      </c>
+      <c r="D28" s="7">
+        <v>724020</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="7">
+        <v>929</v>
+      </c>
+      <c r="I28" s="7">
+        <v>643608</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1902</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1367628</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP25A01_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25A01_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59B9E1B4-C311-45E6-B65F-7B020A3E2BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF4C26DC-3551-44FC-A1D0-965A4B0D9572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8B167576-C4CD-4782-B2E7-54147CAD638F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B632F279-22BF-4A5E-88CA-CCDE906CCEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="195">
   <si>
     <t>Menores según el número de horas al día que emplean en ver la televisión entre semana en 2023 (Tasa respuesta: 99,06%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>2,09%</t>
   </si>
   <si>
-    <t>8,17%</t>
+    <t>7,4%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>4,01%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
@@ -98,28 +98,25 @@
     <t>5,76%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>11,97%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>De 1 a 2h</t>
@@ -128,28 +125,28 @@
     <t>34,17%</t>
   </si>
   <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
   <si>
     <t>23,18%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>Menos de 1h</t>
@@ -158,28 +155,28 @@
     <t>60,07%</t>
   </si>
   <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
   </si>
   <si>
     <t>67,06%</t>
   </si>
   <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,19 +188,19 @@
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
   </si>
   <si>
     <t>4,14%</t>
@@ -212,88 +209,88 @@
     <t>2,64%</t>
   </si>
   <si>
-    <t>6,3%</t>
+    <t>6,45%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>47,75%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
   </si>
   <si>
     <t>46,81%</t>
   </si>
   <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
   </si>
   <si>
     <t>47,31%</t>
   </si>
   <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
   </si>
   <si>
     <t>41,01%</t>
   </si>
   <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
   </si>
   <si>
     <t>41,3%</t>
   </si>
   <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -302,109 +299,109 @@
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>49,14%</t>
   </si>
   <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
   </si>
   <si>
     <t>47,7%</t>
   </si>
   <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>48,47%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
   </si>
   <si>
     <t>36,88%</t>
   </si>
   <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
   </si>
   <si>
     <t>35,63%</t>
   </si>
   <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
   </si>
   <si>
     <t>36,3%</t>
   </si>
   <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -416,133 +413,142 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>4,19%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>13,31%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>47,87%</t>
   </si>
   <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
   </si>
   <si>
     <t>45,56%</t>
   </si>
   <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
   </si>
   <si>
     <t>46,78%</t>
   </si>
   <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
   </si>
   <si>
     <t>40,02%</t>
   </si>
   <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
   </si>
   <si>
     <t>42,72%</t>
   </si>
   <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
   </si>
   <si>
     <t>41,29%</t>
   </si>
   <si>
-    <t>45,86%</t>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
   </si>
   <si>
     <t>9,2%</t>
@@ -551,67 +557,67 @@
     <t>7,26%</t>
   </si>
   <si>
-    <t>11,5%</t>
+    <t>11,44%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>47,12%</t>
   </si>
   <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
   <si>
     <t>44,5%</t>
   </si>
   <si>
-    <t>41,05%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
   </si>
   <si>
     <t>45,89%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>42,64%</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
   </si>
   <si>
     <t>41,74%</t>
   </si>
   <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1026,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7DCC5A-144A-42DE-87CE-6A2E1F8DC2C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D5D029-BFF6-4D7F-B370-5C9E86343145}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1204,10 +1210,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -1216,13 +1222,13 @@
         <v>4289</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -1231,19 +1237,19 @@
         <v>7560</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>36</v>
@@ -1252,13 +1258,13 @@
         <v>19415</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -1267,13 +1273,13 @@
         <v>12955</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>57</v>
@@ -1282,19 +1288,19 @@
         <v>32370</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>70</v>
@@ -1303,13 +1309,13 @@
         <v>34133</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>75</v>
@@ -1318,13 +1324,13 @@
         <v>37475</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>145</v>
@@ -1333,13 +1339,13 @@
         <v>71607</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1354,13 +1360,13 @@
         <v>56819</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>106</v>
@@ -1369,13 +1375,13 @@
         <v>55884</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>218</v>
@@ -1384,18 +1390,18 @@
         <v>112702</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1407,13 +1413,13 @@
         <v>5035</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -1422,13 +1428,13 @@
         <v>8690</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -1437,13 +1443,13 @@
         <v>13725</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,13 +1464,13 @@
         <v>14677</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -1473,13 +1479,13 @@
         <v>9360</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -1488,19 +1494,19 @@
         <v>24037</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7">
         <v>127</v>
@@ -1509,13 +1515,13 @@
         <v>83705</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -1524,13 +1530,13 @@
         <v>73045</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -1539,19 +1545,19 @@
         <v>156750</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
         <v>119</v>
@@ -1560,13 +1566,13 @@
         <v>71883</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>111</v>
@@ -1575,13 +1581,13 @@
         <v>64959</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>230</v>
@@ -1590,13 +1596,13 @@
         <v>136842</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1617,13 @@
         <v>175299</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>254</v>
@@ -1626,13 +1632,13 @@
         <v>156055</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>530</v>
@@ -1641,18 +1647,18 @@
         <v>331353</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1664,13 +1670,13 @@
         <v>5503</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -1679,13 +1685,13 @@
         <v>7510</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -1694,13 +1700,13 @@
         <v>13013</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1721,13 @@
         <v>22814</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -1730,13 +1736,13 @@
         <v>21726</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>56</v>
@@ -1745,19 +1751,19 @@
         <v>44540</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7">
         <v>120</v>
@@ -1766,13 +1772,13 @@
         <v>99493</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -1781,13 +1787,13 @@
         <v>83634</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>233</v>
@@ -1796,19 +1802,19 @@
         <v>183127</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7">
         <v>88</v>
@@ -1817,13 +1823,13 @@
         <v>74667</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -1832,13 +1838,13 @@
         <v>62465</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>172</v>
@@ -1847,13 +1853,13 @@
         <v>137132</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1874,13 @@
         <v>202478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
         <v>232</v>
@@ -1883,13 +1889,13 @@
         <v>175335</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
         <v>475</v>
@@ -1898,18 +1904,18 @@
         <v>377813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1921,13 +1927,13 @@
         <v>6215</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -1936,10 +1942,10 @@
         <v>6216</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>128</v>
@@ -1990,10 +1996,10 @@
         <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>72</v>
@@ -2002,19 +2008,19 @@
         <v>52668</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
         <v>169</v>
@@ -2023,13 +2029,13 @@
         <v>138545</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>158</v>
@@ -2038,13 +2044,13 @@
         <v>116787</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>327</v>
@@ -2053,19 +2059,19 @@
         <v>255332</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
         <v>128</v>
@@ -2074,13 +2080,13 @@
         <v>115818</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>135</v>
@@ -2089,13 +2095,13 @@
         <v>109509</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>263</v>
@@ -2104,13 +2110,13 @@
         <v>225327</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2131,13 @@
         <v>289424</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
         <v>337</v>
@@ -2140,13 +2146,13 @@
         <v>256335</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
         <v>679</v>
@@ -2155,13 +2161,13 @@
         <v>545759</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2184,13 @@
         <v>16753</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -2193,13 +2199,13 @@
         <v>23582</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -2208,13 +2214,13 @@
         <v>40335</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2235,13 @@
         <v>69608</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>85</v>
@@ -2244,13 +2250,13 @@
         <v>59197</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>180</v>
@@ -2259,19 +2265,19 @@
         <v>128805</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
         <v>452</v>
@@ -2280,13 +2286,13 @@
         <v>341159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>406</v>
@@ -2295,13 +2301,13 @@
         <v>286421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>858</v>
@@ -2310,19 +2316,19 @@
         <v>627579</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7">
         <v>405</v>
@@ -2331,13 +2337,13 @@
         <v>296501</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>405</v>
@@ -2346,13 +2352,13 @@
         <v>274408</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>810</v>
@@ -2361,13 +2367,13 @@
         <v>570909</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2388,13 @@
         <v>724020</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="7">
         <v>929</v>
@@ -2397,13 +2403,13 @@
         <v>643608</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M28" s="7">
         <v>1902</v>
@@ -2412,18 +2418,18 @@
         <v>1367628</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25A01_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25A01_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF4C26DC-3551-44FC-A1D0-965A4B0D9572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68003107-6940-4FD0-B76B-3D00A2A710BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B632F279-22BF-4A5E-88CA-CCDE906CCEEE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E64F1DA3-BBD7-452A-B258-A8309190EE9F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="194">
   <si>
     <t>Menores según el número de horas al día que emplean en ver la televisión entre semana en 2023 (Tasa respuesta: 99,06%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,553 +71,550 @@
     <t>Más de 3h</t>
   </si>
   <si>
+    <t>2,04%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>7,19%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>De 1 a 2h</t>
   </si>
   <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
   <si>
     <t>Menos de 1h</t>
   </si>
   <si>
-    <t>60,07%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
   </si>
   <si>
     <t>42,64%</t>
   </si>
   <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1032,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D5D029-BFF6-4D7F-B370-5C9E86343145}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAB25A2-9D92-483D-A9E8-72AE5D0E7799}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1150,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1146</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1165,16 +1162,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1165</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1183,13 +1180,13 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1165</v>
+        <v>1146</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1201,151 +1198,151 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>3271</v>
+        <v>4384</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>4289</v>
+        <v>3375</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>7560</v>
+        <v>7759</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13196</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="7">
         <v>36</v>
       </c>
-      <c r="D6" s="7">
-        <v>19415</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>21</v>
-      </c>
       <c r="I6" s="7">
-        <v>12955</v>
+        <v>20605</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>57</v>
       </c>
       <c r="N6" s="7">
-        <v>32370</v>
+        <v>33801</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
+        <v>75</v>
+      </c>
+      <c r="D7" s="7">
+        <v>37340</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="7">
         <v>70</v>
       </c>
-      <c r="D7" s="7">
-        <v>34133</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>75</v>
-      </c>
       <c r="I7" s="7">
-        <v>37475</v>
+        <v>35748</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>145</v>
       </c>
       <c r="N7" s="7">
-        <v>71607</v>
+        <v>73088</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1354,102 +1351,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>106</v>
+      </c>
+      <c r="D8" s="7">
+        <v>56066</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="7">
         <v>112</v>
       </c>
-      <c r="D8" s="7">
-        <v>56819</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="7">
-        <v>106</v>
-      </c>
       <c r="I8" s="7">
-        <v>55884</v>
+        <v>59728</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>218</v>
       </c>
       <c r="N8" s="7">
-        <v>112702</v>
+        <v>115794</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8702</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
         <v>7</v>
       </c>
-      <c r="D9" s="7">
-        <v>5035</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>14</v>
-      </c>
       <c r="I9" s="7">
-        <v>8690</v>
+        <v>5317</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
       </c>
       <c r="N9" s="7">
-        <v>13725</v>
+        <v>14019</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,148 +1455,148 @@
         <v>18</v>
       </c>
       <c r="C10" s="7">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9364</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="7">
         <v>23</v>
       </c>
-      <c r="D10" s="7">
-        <v>14677</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
       <c r="I10" s="7">
-        <v>9360</v>
+        <v>15581</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
       </c>
       <c r="N10" s="7">
-        <v>24037</v>
+        <v>24945</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
+        <v>114</v>
+      </c>
+      <c r="D11" s="7">
+        <v>73774</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="7">
         <v>127</v>
       </c>
-      <c r="D11" s="7">
-        <v>83705</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="7">
-        <v>114</v>
-      </c>
       <c r="I11" s="7">
-        <v>73045</v>
+        <v>87873</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
       </c>
       <c r="N11" s="7">
-        <v>156750</v>
+        <v>161646</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
+        <v>111</v>
+      </c>
+      <c r="D12" s="7">
+        <v>64710</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="7">
         <v>119</v>
       </c>
-      <c r="D12" s="7">
-        <v>71883</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="7">
-        <v>111</v>
-      </c>
       <c r="I12" s="7">
-        <v>64959</v>
+        <v>73784</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>230</v>
       </c>
       <c r="N12" s="7">
-        <v>136842</v>
+        <v>138494</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>84</v>
@@ -1611,49 +1608,49 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>254</v>
+      </c>
+      <c r="D13" s="7">
+        <v>156550</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="7">
         <v>276</v>
       </c>
-      <c r="D13" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="7">
-        <v>254</v>
-      </c>
       <c r="I13" s="7">
-        <v>156055</v>
+        <v>182554</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>530</v>
       </c>
       <c r="N13" s="7">
-        <v>331353</v>
+        <v>339104</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,10 +1661,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>5503</v>
+        <v>8290</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>86</v>
@@ -1679,10 +1676,10 @@
         <v>88</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>7510</v>
+        <v>5602</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>89</v>
@@ -1697,7 +1694,7 @@
         <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>13013</v>
+        <v>13893</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>92</v>
@@ -1715,10 +1712,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7">
-        <v>22814</v>
+        <v>22722</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>95</v>
@@ -1730,10 +1727,10 @@
         <v>97</v>
       </c>
       <c r="H15" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I15" s="7">
-        <v>21726</v>
+        <v>24078</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>98</v>
@@ -1748,7 +1745,7 @@
         <v>56</v>
       </c>
       <c r="N15" s="7">
-        <v>44540</v>
+        <v>46800</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>101</v>
@@ -1763,13 +1760,13 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D16" s="7">
-        <v>99493</v>
+        <v>80568</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>104</v>
@@ -1781,10 +1778,10 @@
         <v>106</v>
       </c>
       <c r="H16" s="7">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I16" s="7">
-        <v>83634</v>
+        <v>103214</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>107</v>
@@ -1799,7 +1796,7 @@
         <v>233</v>
       </c>
       <c r="N16" s="7">
-        <v>183127</v>
+        <v>183782</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>110</v>
@@ -1814,13 +1811,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D17" s="7">
-        <v>74667</v>
+        <v>60744</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>113</v>
@@ -1832,10 +1829,10 @@
         <v>115</v>
       </c>
       <c r="H17" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I17" s="7">
-        <v>62465</v>
+        <v>79596</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>116</v>
@@ -1850,7 +1847,7 @@
         <v>172</v>
       </c>
       <c r="N17" s="7">
-        <v>137132</v>
+        <v>140339</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>119</v>
@@ -1859,7 +1856,7 @@
         <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,102 +1865,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>232</v>
+      </c>
+      <c r="D18" s="7">
+        <v>172324</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="7">
         <v>243</v>
       </c>
-      <c r="D18" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="7">
-        <v>232</v>
-      </c>
       <c r="I18" s="7">
-        <v>175335</v>
+        <v>212490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>475</v>
       </c>
       <c r="N18" s="7">
-        <v>377813</v>
+        <v>384814</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6121</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="7">
         <v>8</v>
       </c>
-      <c r="D19" s="7">
-        <v>6215</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>6595</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6216</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
       </c>
       <c r="N19" s="7">
-        <v>12432</v>
+        <v>12716</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,151 +1969,151 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
+        <v>35</v>
+      </c>
+      <c r="D20" s="7">
+        <v>24283</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="7">
         <v>37</v>
       </c>
-      <c r="D20" s="7">
-        <v>28846</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>30011</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="7">
-        <v>35</v>
-      </c>
-      <c r="I20" s="7">
-        <v>23822</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>72</v>
       </c>
       <c r="N20" s="7">
-        <v>52668</v>
+        <v>54294</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
+        <v>158</v>
+      </c>
+      <c r="D21" s="7">
+        <v>116586</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="7">
         <v>169</v>
       </c>
-      <c r="D21" s="7">
-        <v>138545</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="I21" s="7">
+        <v>140975</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H21" s="7">
-        <v>158</v>
-      </c>
-      <c r="I21" s="7">
-        <v>116787</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>327</v>
       </c>
       <c r="N21" s="7">
-        <v>255332</v>
+        <v>257561</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
+        <v>135</v>
+      </c>
+      <c r="D22" s="7">
+        <v>124174</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="7">
         <v>128</v>
       </c>
-      <c r="D22" s="7">
-        <v>115818</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>127901</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="7">
-        <v>135</v>
-      </c>
-      <c r="I22" s="7">
-        <v>109509</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>263</v>
       </c>
       <c r="N22" s="7">
-        <v>225327</v>
+        <v>252075</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,49 +2122,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>337</v>
+      </c>
+      <c r="D23" s="7">
+        <v>271164</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="7">
         <v>342</v>
       </c>
-      <c r="D23" s="7">
-        <v>289424</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="7">
-        <v>337</v>
-      </c>
       <c r="I23" s="7">
-        <v>256335</v>
+        <v>305483</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>679</v>
       </c>
       <c r="N23" s="7">
-        <v>545759</v>
+        <v>576647</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,49 +2175,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7">
+        <v>24259</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="7">
         <v>21</v>
       </c>
-      <c r="D24" s="7">
-        <v>16753</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="I24" s="7">
+        <v>17515</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="7">
-        <v>33</v>
-      </c>
-      <c r="I24" s="7">
-        <v>23582</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
       </c>
       <c r="N24" s="7">
-        <v>40335</v>
+        <v>41773</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,151 +2226,151 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
+        <v>85</v>
+      </c>
+      <c r="D25" s="7">
+        <v>60753</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="7">
         <v>95</v>
       </c>
-      <c r="D25" s="7">
-        <v>69608</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>73045</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H25" s="7">
-        <v>85</v>
-      </c>
-      <c r="I25" s="7">
-        <v>59197</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>180</v>
       </c>
       <c r="N25" s="7">
-        <v>128805</v>
+        <v>133798</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
+        <v>406</v>
+      </c>
+      <c r="D26" s="7">
+        <v>284123</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="7">
         <v>452</v>
       </c>
-      <c r="D26" s="7">
-        <v>341159</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>352667</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="7">
-        <v>406</v>
-      </c>
-      <c r="I26" s="7">
-        <v>286421</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>858</v>
       </c>
       <c r="N26" s="7">
-        <v>627579</v>
+        <v>636791</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>405</v>
       </c>
       <c r="D27" s="7">
-        <v>296501</v>
+        <v>286968</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>405</v>
       </c>
       <c r="I27" s="7">
-        <v>274408</v>
+        <v>317028</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>810</v>
       </c>
       <c r="N27" s="7">
-        <v>570909</v>
+        <v>603997</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,54 +2379,54 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>929</v>
+      </c>
+      <c r="D28" s="7">
+        <v>656104</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="7">
         <v>973</v>
       </c>
-      <c r="D28" s="7">
-        <v>724020</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="7">
-        <v>929</v>
-      </c>
       <c r="I28" s="7">
-        <v>643608</v>
+        <v>760255</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>1902</v>
       </c>
       <c r="N28" s="7">
-        <v>1367628</v>
+        <v>1416359</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
